--- a/server/app/management/scripts/sample_data.xlsx
+++ b/server/app/management/scripts/sample_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
   <si>
     <t>application</t>
   </si>
@@ -224,6 +224,81 @@
     <t>When CoPilot proposes an autocomplete recommendation</t>
   </si>
   <si>
+    <t>Jupyter</t>
+  </si>
+  <si>
+    <t>Python: Go to Next Cell</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+]</t>
+  </si>
+  <si>
+    <t>Python: Go to Previous Cell</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+[</t>
+  </si>
+  <si>
+    <t>Python: Extend Selection by Cell Above</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Alt+[</t>
+  </si>
+  <si>
+    <t>Python: Extend Selection by Cell Below</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Alt+]</t>
+  </si>
+  <si>
+    <t>Python: Move Selected Cells Up</t>
+  </si>
+  <si>
+    <t>Ctrl+; U</t>
+  </si>
+  <si>
+    <t>Python: Move Selected Cells Down</t>
+  </si>
+  <si>
+    <t>Ctrl+; D</t>
+  </si>
+  <si>
+    <t>Python: Insert Cell Above</t>
+  </si>
+  <si>
+    <t>Ctrl+; A</t>
+  </si>
+  <si>
+    <t>Python: Insert Cell Below</t>
+  </si>
+  <si>
+    <t>Ctrl+; B</t>
+  </si>
+  <si>
+    <t>Python: Insert Cell Below Position</t>
+  </si>
+  <si>
+    <t>Ctrl+; S</t>
+  </si>
+  <si>
+    <t>Python: Delete Selected Cells</t>
+  </si>
+  <si>
+    <t>Ctrl+; X</t>
+  </si>
+  <si>
+    <t>Python: Change Cell to Code</t>
+  </si>
+  <si>
+    <t>Ctrl+; C</t>
+  </si>
+  <si>
+    <t>Python: Change Cell to Markdown</t>
+  </si>
+  <si>
+    <t>Ctrl+; M</t>
+  </si>
+  <si>
     <t>Google Sheets</t>
   </si>
   <si>
@@ -344,6 +419,9 @@
     <t>Apple</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -351,6 +429,9 @@
   </si>
   <si>
     <t>last_name</t>
+  </si>
+  <si>
+    <t>Admin123</t>
   </si>
   <si>
     <t>semih@test.com</t>
@@ -366,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -384,13 +465,8 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +479,6 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -416,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -427,9 +497,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -724,9 +791,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="13.88"/>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
     <col customWidth="1" min="3" max="3" width="13.13"/>
-    <col customWidth="1" min="4" max="4" width="23.75"/>
+    <col customWidth="1" min="4" max="4" width="32.63"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="8" width="16.25"/>
     <col customWidth="1" min="10" max="10" width="33.5"/>
@@ -1160,13 +1227,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1179,21 +1247,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -1201,14 +1267,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -1216,14 +1287,19 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1231,21 +1307,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>78</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -1253,18 +1327,19 @@
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1272,21 +1347,19 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -1294,18 +1367,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>84</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -1313,18 +1387,19 @@
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>86</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1332,18 +1407,19 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -1351,18 +1427,19 @@
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -1370,37 +1447,267 @@
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="I32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="I33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="2" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1426,7 +1733,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1435,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -1443,43 +1750,43 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1804,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col customWidth="1" min="2" max="3" width="14.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1505,13 +1812,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
@@ -1519,13 +1829,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
